--- a/Output_testing/R1_201907/Country/HKD/MN/LUXEMBOURG_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/LUXEMBOURG_201907_HKD_MN.xlsx
@@ -810,136 +810,447 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="n"/>
-      <c r="C18" s="12" t="n"/>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="12" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="12" t="n"/>
-      <c r="H18" s="13" t="n"/>
-      <c r="I18" s="12" t="n"/>
-      <c r="J18" s="13" t="n"/>
-      <c r="K18" s="13" t="n"/>
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>WORKS OF ART, COLLECTORS' PIECES AND ANTIQUES</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D18" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>1.305279</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>0.3405150352289641</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>15.708798</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>2.790140661024775</v>
+      </c>
+      <c r="I18" s="8" t="n">
+        <v>364.561689</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>58.07555367362774</v>
+      </c>
+      <c r="K18" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="n"/>
-      <c r="C19" s="12" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="12" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="12" t="n"/>
-      <c r="H19" s="13" t="n"/>
-      <c r="I19" s="12" t="n"/>
-      <c r="J19" s="13" t="n"/>
-      <c r="K19" s="13" t="n"/>
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>235.687635</v>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>30.77263088092319</v>
+      </c>
+      <c r="E19" s="8" t="n">
+        <v>161.362029</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>42.09536581033797</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>277.922989</v>
+      </c>
+      <c r="H19" s="9" t="n">
+        <v>49.36368984071483</v>
+      </c>
+      <c r="I19" s="8" t="n">
+        <v>71.948498</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>11.46156873696045</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>44.27338217034127</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="n"/>
-      <c r="C20" s="12" t="n"/>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="12" t="n"/>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="12" t="n"/>
-      <c r="H20" s="13" t="n"/>
-      <c r="I20" s="12" t="n"/>
-      <c r="J20" s="13" t="n"/>
-      <c r="K20" s="13" t="n"/>
+      <c r="A20" s="11" t="inlineStr">
+        <is>
+          <t>714</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>ENGINES AND MOTORS, NON-ELECTRIC (OTHER THAN THOSE OF GROUPS 712, 713 AND 718); PARTS, N.E.S. OF THESE ENGINES AND MOTORS</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>384.158054</v>
+      </c>
+      <c r="D20" s="9" t="n">
+        <v>50.15771826840114</v>
+      </c>
+      <c r="E20" s="8" t="n">
+        <v>86.247989</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>22.49996898192824</v>
+      </c>
+      <c r="G20" s="8" t="n">
+        <v>47.392097</v>
+      </c>
+      <c r="H20" s="9" t="n">
+        <v>8.417615202062581</v>
+      </c>
+      <c r="I20" s="8" t="n">
+        <v>65.187318</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>10.38449650519597</v>
+      </c>
+      <c r="K20" s="9" t="n">
+        <v>102.8703081626869</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="n"/>
-      <c r="C21" s="12" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="12" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="12" t="n"/>
-      <c r="H21" s="13" t="n"/>
-      <c r="I21" s="12" t="n"/>
-      <c r="J21" s="13" t="n"/>
-      <c r="K21" s="13" t="n"/>
+      <c r="A21" s="11" t="inlineStr">
+        <is>
+          <t>792</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>AIRCRAFT AND ASSOCIATED EQUIPMENT; SPACECRAFT (INCLUDING SATELLITES) AND SPACECRAFT LAUNCH VEHICLES; AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D21" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E21" s="8" t="n">
+        <v>6.26667</v>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>1.634819341932485</v>
+      </c>
+      <c r="G21" s="8" t="n">
+        <v>93.453964</v>
+      </c>
+      <c r="H21" s="9" t="n">
+        <v>16.598959697002</v>
+      </c>
+      <c r="I21" s="8" t="n">
+        <v>43.103476</v>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>6.866487372341326</v>
+      </c>
+      <c r="K21" s="9" t="n">
+        <v>-3.824493274605401</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="n"/>
-      <c r="C22" s="12" t="n"/>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="12" t="n"/>
-      <c r="F22" s="13" t="n"/>
-      <c r="G22" s="12" t="n"/>
-      <c r="H22" s="13" t="n"/>
-      <c r="I22" s="12" t="n"/>
-      <c r="J22" s="13" t="n"/>
-      <c r="K22" s="13" t="n"/>
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>75.84348300000001</v>
+      </c>
+      <c r="D22" s="9" t="n">
+        <v>9.902528433799986</v>
+      </c>
+      <c r="E22" s="8" t="n">
+        <v>55.658191</v>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>14.51984661451339</v>
+      </c>
+      <c r="G22" s="8" t="n">
+        <v>16.266648</v>
+      </c>
+      <c r="H22" s="9" t="n">
+        <v>2.889223987944676</v>
+      </c>
+      <c r="I22" s="8" t="n">
+        <v>19.652446</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>3.130681903580579</v>
+      </c>
+      <c r="K22" s="9" t="n">
+        <v>263.569134842756</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="n"/>
-      <c r="C23" s="12" t="n"/>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="12" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="12" t="n"/>
-      <c r="H23" s="13" t="n"/>
-      <c r="I23" s="12" t="n"/>
-      <c r="J23" s="13" t="n"/>
-      <c r="K23" s="13" t="n"/>
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>898</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>MUSICAL INSTRUMENTS AND PARTS AND ACCESSORIES THEREOF; RECORDS, TAPES AND OTHER SOUND OR SIMILAR RECORDINGS (EXCLUDING GOODS OF GROUPS 763 AND 883)</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>1.157538</v>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>0.1511343164211482</v>
+      </c>
+      <c r="E23" s="8" t="n">
+        <v>1.177581</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>0.307201782683977</v>
+      </c>
+      <c r="G23" s="8" t="n">
+        <v>49.797466</v>
+      </c>
+      <c r="H23" s="9" t="n">
+        <v>8.844848262903296</v>
+      </c>
+      <c r="I23" s="8" t="n">
+        <v>9.451561</v>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>1.505656394287406</v>
+      </c>
+      <c r="K23" s="9" t="n">
+        <v>-56.35895127702171</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="n"/>
-      <c r="C24" s="12" t="n"/>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="12" t="n"/>
-      <c r="F24" s="13" t="n"/>
-      <c r="G24" s="12" t="n"/>
-      <c r="H24" s="13" t="n"/>
-      <c r="I24" s="12" t="n"/>
-      <c r="J24" s="13" t="n"/>
-      <c r="K24" s="13" t="n"/>
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES OF APPAREL, OF TEXTILE FABRICS, WHETHER OR NOT KNITTED OR CROCHETED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="n">
+        <v>4.109294</v>
+      </c>
+      <c r="D24" s="9" t="n">
+        <v>0.5365312755724007</v>
+      </c>
+      <c r="E24" s="8" t="n">
+        <v>4.367512</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>1.139375951457829</v>
+      </c>
+      <c r="G24" s="8" t="n">
+        <v>4.338888</v>
+      </c>
+      <c r="H24" s="9" t="n">
+        <v>0.7706578079642037</v>
+      </c>
+      <c r="I24" s="8" t="n">
+        <v>7.786246</v>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>1.24036771041257</v>
+      </c>
+      <c r="K24" s="9" t="n">
+        <v>183.179467409568</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="n"/>
-      <c r="C25" s="12" t="n"/>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="12" t="n"/>
-      <c r="F25" s="13" t="n"/>
-      <c r="G25" s="12" t="n"/>
-      <c r="H25" s="13" t="n"/>
-      <c r="I25" s="12" t="n"/>
-      <c r="J25" s="13" t="n"/>
-      <c r="K25" s="13" t="n"/>
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="n">
+        <v>1.778339</v>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>0.2321893960544433</v>
+      </c>
+      <c r="E25" s="8" t="n">
+        <v>4.243443</v>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>1.107009415333504</v>
+      </c>
+      <c r="G25" s="8" t="n">
+        <v>2.341927</v>
+      </c>
+      <c r="H25" s="9" t="n">
+        <v>0.4159647191243894</v>
+      </c>
+      <c r="I25" s="8" t="n">
+        <v>7.354086</v>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>1.171523583251433</v>
+      </c>
+      <c r="K25" s="9" t="n">
+        <v>854.8628098658481</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="n"/>
-      <c r="C26" s="12" t="n"/>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="12" t="n"/>
-      <c r="F26" s="13" t="n"/>
-      <c r="G26" s="12" t="n"/>
-      <c r="H26" s="13" t="n"/>
-      <c r="I26" s="12" t="n"/>
-      <c r="J26" s="13" t="n"/>
-      <c r="K26" s="13" t="n"/>
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>841</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>MEN'S OR BOYS' COATS, JACKETS, SUITS, BLAZERS, TROUSERS, SHORTS, SHIRTS, UNDERWEAR, NIGHTWEAR AND SIMILAR ARTICLES OF TEXTILE FABRICS, NOT KNITTED OR CROCHETED</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D26" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E26" s="8" t="n">
+        <v>1.477332</v>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>0.3853994111794307</v>
+      </c>
+      <c r="G26" s="8" t="n">
+        <v>1.829774</v>
+      </c>
+      <c r="H26" s="9" t="n">
+        <v>0.3249979303245192</v>
+      </c>
+      <c r="I26" s="8" t="n">
+        <v>3.296382</v>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>0.5251215789977877</v>
+      </c>
+      <c r="K26" s="9" t="n">
+        <v>135.1451296501052</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="n"/>
-      <c r="C27" s="12" t="n"/>
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="12" t="n"/>
-      <c r="F27" s="13" t="n"/>
-      <c r="G27" s="12" t="n"/>
-      <c r="H27" s="13" t="n"/>
-      <c r="I27" s="12" t="n"/>
-      <c r="J27" s="13" t="n"/>
-      <c r="K27" s="13" t="n"/>
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C27" s="8" t="n">
+        <v>6.385648</v>
+      </c>
+      <c r="D27" s="9" t="n">
+        <v>0.8337441581927088</v>
+      </c>
+      <c r="E27" s="8" t="n">
+        <v>5.330951</v>
+      </c>
+      <c r="F27" s="9" t="n">
+        <v>1.390713378188787</v>
+      </c>
+      <c r="G27" s="8" t="n">
+        <v>5.163042</v>
+      </c>
+      <c r="H27" s="9" t="n">
+        <v>0.917041101348345</v>
+      </c>
+      <c r="I27" s="8" t="n">
+        <v>2.728649</v>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>0.4346803469412023</v>
+      </c>
+      <c r="K27" s="9" t="n">
+        <v>24.83708243509832</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="n"/>
-      <c r="C28" s="12" t="n"/>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="12" t="n"/>
-      <c r="F28" s="13" t="n"/>
-      <c r="G28" s="12" t="n"/>
-      <c r="H28" s="13" t="n"/>
-      <c r="I28" s="12" t="n"/>
-      <c r="J28" s="13" t="n"/>
-      <c r="K28" s="13" t="n"/>
+      <c r="A28" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="n">
+        <v>56.475497</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>7.373741193498272</v>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>55.887947</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>14.57978427721543</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>48.795377</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <v>8.666860789586391</v>
+      </c>
+      <c r="I28" s="8" t="n">
+        <v>32.666564</v>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>5.203862194403527</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>17.54956744981793</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="n"/>
@@ -971,136 +1282,575 @@
       <c r="K30" s="13" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="n"/>
-      <c r="C31" s="12" t="n"/>
-      <c r="D31" s="13" t="n"/>
-      <c r="E31" s="12" t="n"/>
-      <c r="F31" s="13" t="n"/>
-      <c r="G31" s="12" t="n"/>
-      <c r="H31" s="13" t="n"/>
-      <c r="I31" s="12" t="n"/>
-      <c r="J31" s="13" t="n"/>
-      <c r="K31" s="13" t="n"/>
+      <c r="A31" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C31" s="8" t="n">
+        <v>1.375239</v>
+      </c>
+      <c r="D31" s="9" t="n">
+        <v>78.16127296050161</v>
+      </c>
+      <c r="E31" s="8" t="n">
+        <v>1.61662</v>
+      </c>
+      <c r="F31" s="9" t="n">
+        <v>66.3111194241677</v>
+      </c>
+      <c r="G31" s="8" t="n">
+        <v>2.121032</v>
+      </c>
+      <c r="H31" s="9" t="n">
+        <v>74.90175693351677</v>
+      </c>
+      <c r="I31" s="8" t="n">
+        <v>1.754255</v>
+      </c>
+      <c r="J31" s="9" t="n">
+        <v>99.22245563070629</v>
+      </c>
+      <c r="K31" s="9" t="n">
+        <v>8.019297791899117</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="n"/>
-      <c r="C32" s="12" t="n"/>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="12" t="n"/>
-      <c r="F32" s="13" t="n"/>
-      <c r="G32" s="12" t="n"/>
-      <c r="H32" s="13" t="n"/>
-      <c r="I32" s="12" t="n"/>
-      <c r="J32" s="13" t="n"/>
-      <c r="K32" s="13" t="n"/>
+      <c r="A32" s="11" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>BABY CARRIAGES, TOYS, GAMES AND SPORTING GOODS</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D32" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E32" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F32" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G32" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H32" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J32" s="9" t="n">
+        <v>0.5477934979711562</v>
+      </c>
+      <c r="K32" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="n"/>
-      <c r="C33" s="12" t="n"/>
-      <c r="D33" s="13" t="n"/>
-      <c r="E33" s="12" t="n"/>
-      <c r="F33" s="13" t="n"/>
-      <c r="G33" s="12" t="n"/>
-      <c r="H33" s="13" t="n"/>
-      <c r="I33" s="12" t="n"/>
-      <c r="J33" s="13" t="n"/>
-      <c r="K33" s="13" t="n"/>
+      <c r="A33" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D33" s="9" t="n">
+        <v>2.004957121073221</v>
+      </c>
+      <c r="E33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F33" s="9" t="n">
+        <v>3.040691865072529</v>
+      </c>
+      <c r="G33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H33" s="9" t="n">
+        <v>0.7499244284103975</v>
+      </c>
+      <c r="I33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J33" s="9" t="n">
+        <v>0.2297508713225438</v>
+      </c>
+      <c r="K33" s="9" t="n">
+        <v>-73.4544503986407</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="n"/>
-      <c r="C34" s="12" t="n"/>
-      <c r="D34" s="13" t="n"/>
-      <c r="E34" s="12" t="n"/>
-      <c r="F34" s="13" t="n"/>
-      <c r="G34" s="12" t="n"/>
-      <c r="H34" s="13" t="n"/>
-      <c r="I34" s="12" t="n"/>
-      <c r="J34" s="13" t="n"/>
-      <c r="K34" s="13" t="n"/>
+      <c r="A34" s="11" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>PRINTED MATTER</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D34" s="9" t="n">
+        <v>19.18170559747745</v>
+      </c>
+      <c r="E34" s="8" t="n">
+        <v>0.61219</v>
+      </c>
+      <c r="F34" s="9" t="n">
+        <v>25.11103673113114</v>
+      </c>
+      <c r="G34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H34" s="9" t="n">
+        <v>17.38923465049199</v>
+      </c>
+      <c r="I34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K34" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="n"/>
-      <c r="C35" s="12" t="n"/>
-      <c r="D35" s="13" t="n"/>
-      <c r="E35" s="12" t="n"/>
-      <c r="F35" s="13" t="n"/>
-      <c r="G35" s="12" t="n"/>
-      <c r="H35" s="13" t="n"/>
-      <c r="I35" s="12" t="n"/>
-      <c r="J35" s="13" t="n"/>
-      <c r="K35" s="13" t="n"/>
+      <c r="A35" s="11" t="inlineStr">
+        <is>
+          <t>642</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>PAPER AND PAPERBOARD, CUT TO SIZE OR SHAPE, AND ARTICLES OF PAPER OR PAPERBOARD</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F35" s="9" t="n">
+        <v>2.420083907180348</v>
+      </c>
+      <c r="G35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H35" s="9" t="n">
+        <v>6.78025476807291</v>
+      </c>
+      <c r="I35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K35" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="n"/>
-      <c r="C36" s="12" t="n"/>
-      <c r="D36" s="13" t="n"/>
-      <c r="E36" s="12" t="n"/>
-      <c r="F36" s="13" t="n"/>
-      <c r="G36" s="12" t="n"/>
-      <c r="H36" s="13" t="n"/>
-      <c r="I36" s="12" t="n"/>
-      <c r="J36" s="13" t="n"/>
-      <c r="K36" s="13" t="n"/>
+      <c r="A36" s="11" t="inlineStr">
+        <is>
+          <t>841</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>MEN'S OR BOYS' COATS, JACKETS, SUITS, BLAZERS, TROUSERS, SHORTS, SHIRTS, UNDERWEAR, NIGHTWEAR AND SIMILAR ARTICLES OF TEXTILE FABRICS, NOT KNITTED OR CROCHETED</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D36" s="9" t="n">
+        <v>0.6512118006989529</v>
+      </c>
+      <c r="E36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F36" s="9" t="n">
+        <v>1.898084113912939</v>
+      </c>
+      <c r="G36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H36" s="9" t="n">
+        <v>0.178829219507923</v>
+      </c>
+      <c r="I36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K36" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="n"/>
-      <c r="C37" s="12" t="n"/>
-      <c r="D37" s="13" t="n"/>
-      <c r="E37" s="12" t="n"/>
-      <c r="F37" s="13" t="n"/>
-      <c r="G37" s="12" t="n"/>
-      <c r="H37" s="13" t="n"/>
-      <c r="I37" s="12" t="n"/>
-      <c r="J37" s="13" t="n"/>
-      <c r="K37" s="13" t="n"/>
+      <c r="A37" s="11" t="inlineStr">
+        <is>
+          <t>654</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>OTHER TEXTILE FABRICS, WOVEN</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F37" s="9" t="n">
+        <v>1.218983958535349</v>
+      </c>
+      <c r="G37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="n"/>
-      <c r="C38" s="12" t="n"/>
-      <c r="D38" s="13" t="n"/>
-      <c r="E38" s="12" t="n"/>
-      <c r="F38" s="13" t="n"/>
-      <c r="G38" s="12" t="n"/>
-      <c r="H38" s="13" t="n"/>
-      <c r="I38" s="12" t="n"/>
-      <c r="J38" s="13" t="n"/>
-      <c r="K38" s="13" t="n"/>
+      <c r="A38" s="11" t="inlineStr">
+        <is>
+          <t>656</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>TULLES, LACE, EMBROIDERY, RIBBONS, TRIMMINGS AND OTHER SMALL WARES</t>
+        </is>
+      </c>
+      <c r="C38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D38" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="n"/>
-      <c r="C39" s="12" t="n"/>
-      <c r="D39" s="13" t="n"/>
-      <c r="E39" s="12" t="n"/>
-      <c r="F39" s="13" t="n"/>
-      <c r="G39" s="12" t="n"/>
-      <c r="H39" s="13" t="n"/>
-      <c r="I39" s="12" t="n"/>
-      <c r="J39" s="13" t="n"/>
-      <c r="K39" s="13" t="n"/>
+      <c r="A39" s="11" t="inlineStr">
+        <is>
+          <t>022</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>MILK AND CREAM AND MILK PRODUCTS OTHER THAN BUTTER OR CHEESE</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="n"/>
-      <c r="C40" s="12" t="n"/>
-      <c r="D40" s="13" t="n"/>
-      <c r="E40" s="12" t="n"/>
-      <c r="F40" s="13" t="n"/>
-      <c r="G40" s="12" t="n"/>
-      <c r="H40" s="13" t="n"/>
-      <c r="I40" s="12" t="n"/>
-      <c r="J40" s="13" t="n"/>
-      <c r="K40" s="13" t="n"/>
+      <c r="A40" s="11" t="inlineStr">
+        <is>
+          <t>024</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>CHEESE AND CURD</t>
+        </is>
+      </c>
+      <c r="C40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="n"/>
-      <c r="C41" s="12" t="n"/>
-      <c r="D41" s="13" t="n"/>
-      <c r="E41" s="12" t="n"/>
-      <c r="F41" s="13" t="n"/>
-      <c r="G41" s="12" t="n"/>
-      <c r="H41" s="13" t="n"/>
-      <c r="I41" s="12" t="n"/>
-      <c r="J41" s="13" t="n"/>
-      <c r="K41" s="13" t="n"/>
+      <c r="A41" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="n"/>
@@ -1132,136 +1882,447 @@
       <c r="K43" s="13" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="n"/>
-      <c r="C44" s="12" t="n"/>
-      <c r="D44" s="13" t="n"/>
-      <c r="E44" s="12" t="n"/>
-      <c r="F44" s="13" t="n"/>
-      <c r="G44" s="12" t="n"/>
-      <c r="H44" s="13" t="n"/>
-      <c r="I44" s="12" t="n"/>
-      <c r="J44" s="13" t="n"/>
-      <c r="K44" s="13" t="n"/>
+      <c r="A44" s="11" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>WORKS OF ART, COLLECTORS' PIECES AND ANTIQUES</t>
+        </is>
+      </c>
+      <c r="C44" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D44" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E44" s="8" t="n">
+        <v>1.305279</v>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>0.3426945596503858</v>
+      </c>
+      <c r="G44" s="8" t="n">
+        <v>15.708798</v>
+      </c>
+      <c r="H44" s="9" t="n">
+        <v>2.804245051447089</v>
+      </c>
+      <c r="I44" s="8" t="n">
+        <v>364.561689</v>
+      </c>
+      <c r="J44" s="9" t="n">
+        <v>58.23958369638718</v>
+      </c>
+      <c r="K44" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="n"/>
-      <c r="C45" s="12" t="n"/>
-      <c r="D45" s="13" t="n"/>
-      <c r="E45" s="12" t="n"/>
-      <c r="F45" s="13" t="n"/>
-      <c r="G45" s="12" t="n"/>
-      <c r="H45" s="13" t="n"/>
-      <c r="I45" s="12" t="n"/>
-      <c r="J45" s="13" t="n"/>
-      <c r="K45" s="13" t="n"/>
+      <c r="A45" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="n">
+        <v>235.687635</v>
+      </c>
+      <c r="D45" s="9" t="n">
+        <v>30.84348708089344</v>
+      </c>
+      <c r="E45" s="8" t="n">
+        <v>161.362029</v>
+      </c>
+      <c r="F45" s="9" t="n">
+        <v>42.36480436170947</v>
+      </c>
+      <c r="G45" s="8" t="n">
+        <v>277.922989</v>
+      </c>
+      <c r="H45" s="9" t="n">
+        <v>49.61322735110819</v>
+      </c>
+      <c r="I45" s="8" t="n">
+        <v>71.948498</v>
+      </c>
+      <c r="J45" s="9" t="n">
+        <v>11.49394107371591</v>
+      </c>
+      <c r="K45" s="9" t="n">
+        <v>44.27338217034127</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="n"/>
-      <c r="C46" s="12" t="n"/>
-      <c r="D46" s="13" t="n"/>
-      <c r="E46" s="12" t="n"/>
-      <c r="F46" s="13" t="n"/>
-      <c r="G46" s="12" t="n"/>
-      <c r="H46" s="13" t="n"/>
-      <c r="I46" s="12" t="n"/>
-      <c r="J46" s="13" t="n"/>
-      <c r="K46" s="13" t="n"/>
+      <c r="A46" s="11" t="inlineStr">
+        <is>
+          <t>714</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>ENGINES AND MOTORS, NON-ELECTRIC (OTHER THAN THOSE OF GROUPS 712, 713 AND 718); PARTS, N.E.S. OF THESE ENGINES AND MOTORS</t>
+        </is>
+      </c>
+      <c r="C46" s="8" t="n">
+        <v>384.158054</v>
+      </c>
+      <c r="D46" s="9" t="n">
+        <v>50.27321002890187</v>
+      </c>
+      <c r="E46" s="8" t="n">
+        <v>86.247989</v>
+      </c>
+      <c r="F46" s="9" t="n">
+        <v>22.64398386175393</v>
+      </c>
+      <c r="G46" s="8" t="n">
+        <v>47.392097</v>
+      </c>
+      <c r="H46" s="9" t="n">
+        <v>8.460166938931318</v>
+      </c>
+      <c r="I46" s="8" t="n">
+        <v>65.187318</v>
+      </c>
+      <c r="J46" s="9" t="n">
+        <v>10.4138267326384</v>
+      </c>
+      <c r="K46" s="9" t="n">
+        <v>102.8703081626869</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="n"/>
-      <c r="C47" s="12" t="n"/>
-      <c r="D47" s="13" t="n"/>
-      <c r="E47" s="12" t="n"/>
-      <c r="F47" s="13" t="n"/>
-      <c r="G47" s="12" t="n"/>
-      <c r="H47" s="13" t="n"/>
-      <c r="I47" s="12" t="n"/>
-      <c r="J47" s="13" t="n"/>
-      <c r="K47" s="13" t="n"/>
+      <c r="A47" s="11" t="inlineStr">
+        <is>
+          <t>792</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>AIRCRAFT AND ASSOCIATED EQUIPMENT; SPACECRAFT (INCLUDING SATELLITES) AND SPACECRAFT LAUNCH VEHICLES; AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C47" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D47" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E47" s="8" t="n">
+        <v>6.26667</v>
+      </c>
+      <c r="F47" s="9" t="n">
+        <v>1.645283281294101</v>
+      </c>
+      <c r="G47" s="8" t="n">
+        <v>93.453964</v>
+      </c>
+      <c r="H47" s="9" t="n">
+        <v>16.68286880289086</v>
+      </c>
+      <c r="I47" s="8" t="n">
+        <v>43.103476</v>
+      </c>
+      <c r="J47" s="9" t="n">
+        <v>6.885881248227419</v>
+      </c>
+      <c r="K47" s="9" t="n">
+        <v>-3.824493274605401</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="n"/>
-      <c r="C48" s="12" t="n"/>
-      <c r="D48" s="13" t="n"/>
-      <c r="E48" s="12" t="n"/>
-      <c r="F48" s="13" t="n"/>
-      <c r="G48" s="12" t="n"/>
-      <c r="H48" s="13" t="n"/>
-      <c r="I48" s="12" t="n"/>
-      <c r="J48" s="13" t="n"/>
-      <c r="K48" s="13" t="n"/>
+      <c r="A48" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C48" s="8" t="n">
+        <v>75.84348300000001</v>
+      </c>
+      <c r="D48" s="9" t="n">
+        <v>9.925329719059981</v>
+      </c>
+      <c r="E48" s="8" t="n">
+        <v>55.658191</v>
+      </c>
+      <c r="F48" s="9" t="n">
+        <v>14.61278336331318</v>
+      </c>
+      <c r="G48" s="8" t="n">
+        <v>16.266648</v>
+      </c>
+      <c r="H48" s="9" t="n">
+        <v>2.903829252730329</v>
+      </c>
+      <c r="I48" s="8" t="n">
+        <v>19.652446</v>
+      </c>
+      <c r="J48" s="9" t="n">
+        <v>3.139524278580269</v>
+      </c>
+      <c r="K48" s="9" t="n">
+        <v>263.569134842756</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="n"/>
-      <c r="C49" s="12" t="n"/>
-      <c r="D49" s="13" t="n"/>
-      <c r="E49" s="12" t="n"/>
-      <c r="F49" s="13" t="n"/>
-      <c r="G49" s="12" t="n"/>
-      <c r="H49" s="13" t="n"/>
-      <c r="I49" s="12" t="n"/>
-      <c r="J49" s="13" t="n"/>
-      <c r="K49" s="13" t="n"/>
+      <c r="A49" s="11" t="inlineStr">
+        <is>
+          <t>898</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>MUSICAL INSTRUMENTS AND PARTS AND ACCESSORIES THEREOF; RECORDS, TAPES AND OTHER SOUND OR SIMILAR RECORDINGS (EXCLUDING GOODS OF GROUPS 763 AND 883)</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="n">
+        <v>1.157538</v>
+      </c>
+      <c r="D49" s="9" t="n">
+        <v>0.1514823140749121</v>
+      </c>
+      <c r="E49" s="8" t="n">
+        <v>1.177581</v>
+      </c>
+      <c r="F49" s="9" t="n">
+        <v>0.3091680799642536</v>
+      </c>
+      <c r="G49" s="8" t="n">
+        <v>49.797466</v>
+      </c>
+      <c r="H49" s="9" t="n">
+        <v>8.88955969801793</v>
+      </c>
+      <c r="I49" s="8" t="n">
+        <v>9.451561</v>
+      </c>
+      <c r="J49" s="9" t="n">
+        <v>1.509909007254487</v>
+      </c>
+      <c r="K49" s="9" t="n">
+        <v>-56.35895127702171</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="n"/>
-      <c r="C50" s="12" t="n"/>
-      <c r="D50" s="13" t="n"/>
-      <c r="E50" s="12" t="n"/>
-      <c r="F50" s="13" t="n"/>
-      <c r="G50" s="12" t="n"/>
-      <c r="H50" s="13" t="n"/>
-      <c r="I50" s="12" t="n"/>
-      <c r="J50" s="13" t="n"/>
-      <c r="K50" s="13" t="n"/>
+      <c r="A50" s="11" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES OF APPAREL, OF TEXTILE FABRICS, WHETHER OR NOT KNITTED OR CROCHETED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C50" s="8" t="n">
+        <v>4.109294</v>
+      </c>
+      <c r="D50" s="9" t="n">
+        <v>0.5377666774949519</v>
+      </c>
+      <c r="E50" s="8" t="n">
+        <v>4.367512</v>
+      </c>
+      <c r="F50" s="9" t="n">
+        <v>1.146668721099302</v>
+      </c>
+      <c r="G50" s="8" t="n">
+        <v>4.338888</v>
+      </c>
+      <c r="H50" s="9" t="n">
+        <v>0.7745535465401717</v>
+      </c>
+      <c r="I50" s="8" t="n">
+        <v>7.786246</v>
+      </c>
+      <c r="J50" s="9" t="n">
+        <v>1.243871035493419</v>
+      </c>
+      <c r="K50" s="9" t="n">
+        <v>183.179467409568</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="n"/>
-      <c r="C51" s="12" t="n"/>
-      <c r="D51" s="13" t="n"/>
-      <c r="E51" s="12" t="n"/>
-      <c r="F51" s="13" t="n"/>
-      <c r="G51" s="12" t="n"/>
-      <c r="H51" s="13" t="n"/>
-      <c r="I51" s="12" t="n"/>
-      <c r="J51" s="13" t="n"/>
-      <c r="K51" s="13" t="n"/>
+      <c r="A51" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="n">
+        <v>1.778339</v>
+      </c>
+      <c r="D51" s="9" t="n">
+        <v>0.2327240288696051</v>
+      </c>
+      <c r="E51" s="8" t="n">
+        <v>4.243443</v>
+      </c>
+      <c r="F51" s="9" t="n">
+        <v>1.114095017453366</v>
+      </c>
+      <c r="G51" s="8" t="n">
+        <v>2.341927</v>
+      </c>
+      <c r="H51" s="9" t="n">
+        <v>0.418067454976525</v>
+      </c>
+      <c r="I51" s="8" t="n">
+        <v>7.354086</v>
+      </c>
+      <c r="J51" s="9" t="n">
+        <v>1.174832463285601</v>
+      </c>
+      <c r="K51" s="9" t="n">
+        <v>854.8628098658481</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="11" t="n"/>
-      <c r="C52" s="12" t="n"/>
-      <c r="D52" s="13" t="n"/>
-      <c r="E52" s="12" t="n"/>
-      <c r="F52" s="13" t="n"/>
-      <c r="G52" s="12" t="n"/>
-      <c r="H52" s="13" t="n"/>
-      <c r="I52" s="12" t="n"/>
-      <c r="J52" s="13" t="n"/>
-      <c r="K52" s="13" t="n"/>
+      <c r="A52" s="11" t="inlineStr">
+        <is>
+          <t>841</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>MEN'S OR BOYS' COATS, JACKETS, SUITS, BLAZERS, TROUSERS, SHORTS, SHIRTS, UNDERWEAR, NIGHTWEAR AND SIMILAR ARTICLES OF TEXTILE FABRICS, NOT KNITTED OR CROCHETED</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D52" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E52" s="8" t="n">
+        <v>1.431058</v>
+      </c>
+      <c r="F52" s="9" t="n">
+        <v>0.3757172153571472</v>
+      </c>
+      <c r="G52" s="8" t="n">
+        <v>1.82471</v>
+      </c>
+      <c r="H52" s="9" t="n">
+        <v>0.3257368251744034</v>
+      </c>
+      <c r="I52" s="8" t="n">
+        <v>3.296382</v>
+      </c>
+      <c r="J52" s="9" t="n">
+        <v>0.5266047453062578</v>
+      </c>
+      <c r="K52" s="9" t="n">
+        <v>135.997640297082</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="n"/>
-      <c r="C53" s="12" t="n"/>
-      <c r="D53" s="13" t="n"/>
-      <c r="E53" s="12" t="n"/>
-      <c r="F53" s="13" t="n"/>
-      <c r="G53" s="12" t="n"/>
-      <c r="H53" s="13" t="n"/>
-      <c r="I53" s="12" t="n"/>
-      <c r="J53" s="13" t="n"/>
-      <c r="K53" s="13" t="n"/>
+      <c r="A53" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="n">
+        <v>6.385648</v>
+      </c>
+      <c r="D53" s="9" t="n">
+        <v>0.8356639141936023</v>
+      </c>
+      <c r="E53" s="8" t="n">
+        <v>5.330951</v>
+      </c>
+      <c r="F53" s="9" t="n">
+        <v>1.399614875794971</v>
+      </c>
+      <c r="G53" s="8" t="n">
+        <v>5.163042</v>
+      </c>
+      <c r="H53" s="9" t="n">
+        <v>0.9216768195067173</v>
+      </c>
+      <c r="I53" s="8" t="n">
+        <v>2.728649</v>
+      </c>
+      <c r="J53" s="9" t="n">
+        <v>0.4359080688085225</v>
+      </c>
+      <c r="K53" s="9" t="n">
+        <v>24.83708243509832</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="11" t="n"/>
-      <c r="C54" s="12" t="n"/>
-      <c r="D54" s="13" t="n"/>
-      <c r="E54" s="12" t="n"/>
-      <c r="F54" s="13" t="n"/>
-      <c r="G54" s="12" t="n"/>
-      <c r="H54" s="13" t="n"/>
-      <c r="I54" s="12" t="n"/>
-      <c r="J54" s="13" t="n"/>
-      <c r="K54" s="13" t="n"/>
+      <c r="A54" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C54" s="8" t="n">
+        <v>54.727466</v>
+      </c>
+      <c r="D54" s="9" t="n">
+        <v>7.161962020370883</v>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v>53.496289</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <v>14.04518666260989</v>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v>45.968689</v>
+      </c>
+      <c r="H54" s="9" t="n">
+        <v>8.206068258676458</v>
+      </c>
+      <c r="I54" s="8" t="n">
+        <v>30.898562</v>
+      </c>
+      <c r="J54" s="9" t="n">
+        <v>4.936117650302547</v>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>20.72643499813589</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="n"/>
@@ -1293,136 +2354,463 @@
       <c r="K56" s="13" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="n"/>
-      <c r="C57" s="12" t="n"/>
-      <c r="D57" s="13" t="n"/>
-      <c r="E57" s="12" t="n"/>
-      <c r="F57" s="13" t="n"/>
-      <c r="G57" s="12" t="n"/>
-      <c r="H57" s="13" t="n"/>
-      <c r="I57" s="12" t="n"/>
-      <c r="J57" s="13" t="n"/>
-      <c r="K57" s="13" t="n"/>
+      <c r="A57" s="11" t="inlineStr">
+        <is>
+          <t>714</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>ENGINES AND MOTORS, NON-ELECTRIC (OTHER THAN THOSE OF GROUPS 712, 713 AND 718); PARTS, N.E.S. OF THESE ENGINES AND MOTORS</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="n">
+        <v>571.781122</v>
+      </c>
+      <c r="D57" s="9" t="n">
+        <v>74.56653011038516</v>
+      </c>
+      <c r="E57" s="8" t="n">
+        <v>27.379689</v>
+      </c>
+      <c r="F57" s="9" t="n">
+        <v>10.07348977559711</v>
+      </c>
+      <c r="G57" s="8" t="n">
+        <v>569.300504</v>
+      </c>
+      <c r="H57" s="9" t="n">
+        <v>48.52008188075746</v>
+      </c>
+      <c r="I57" s="8" t="n">
+        <v>684.312678</v>
+      </c>
+      <c r="J57" s="9" t="n">
+        <v>53.91602622217982</v>
+      </c>
+      <c r="K57" s="9" t="n">
+        <v>188.0014335917992</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="n"/>
-      <c r="C58" s="12" t="n"/>
-      <c r="D58" s="13" t="n"/>
-      <c r="E58" s="12" t="n"/>
-      <c r="F58" s="13" t="n"/>
-      <c r="G58" s="12" t="n"/>
-      <c r="H58" s="13" t="n"/>
-      <c r="I58" s="12" t="n"/>
-      <c r="J58" s="13" t="n"/>
-      <c r="K58" s="13" t="n"/>
+      <c r="A58" s="11" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>WORKS OF ART, COLLECTORS' PIECES AND ANTIQUES</t>
+        </is>
+      </c>
+      <c r="C58" s="8" t="n">
+        <v>0.6283</v>
+      </c>
+      <c r="D58" s="9" t="n">
+        <v>0.08193721175067931</v>
+      </c>
+      <c r="E58" s="8" t="n">
+        <v>29.380208</v>
+      </c>
+      <c r="F58" s="9" t="n">
+        <v>10.80951740879586</v>
+      </c>
+      <c r="G58" s="8" t="n">
+        <v>217.143626</v>
+      </c>
+      <c r="H58" s="9" t="n">
+        <v>18.50661722478393</v>
+      </c>
+      <c r="I58" s="8" t="n">
+        <v>263.274596</v>
+      </c>
+      <c r="J58" s="9" t="n">
+        <v>20.74303235628465</v>
+      </c>
+      <c r="K58" s="9" t="n">
+        <v>193.6914696628155</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="n"/>
-      <c r="C59" s="12" t="n"/>
-      <c r="D59" s="13" t="n"/>
-      <c r="E59" s="12" t="n"/>
-      <c r="F59" s="13" t="n"/>
-      <c r="G59" s="12" t="n"/>
-      <c r="H59" s="13" t="n"/>
-      <c r="I59" s="12" t="n"/>
-      <c r="J59" s="13" t="n"/>
-      <c r="K59" s="13" t="n"/>
+      <c r="A59" s="11" t="inlineStr">
+        <is>
+          <t>598</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>MISCELLANEOUS CHEMICAL PRODUCTS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C59" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D59" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E59" s="8" t="n">
+        <v>0.615529</v>
+      </c>
+      <c r="F59" s="9" t="n">
+        <v>0.2264644090034592</v>
+      </c>
+      <c r="G59" s="8" t="n">
+        <v>197.612682</v>
+      </c>
+      <c r="H59" s="9" t="n">
+        <v>16.84204289992353</v>
+      </c>
+      <c r="I59" s="8" t="n">
+        <v>121.554169</v>
+      </c>
+      <c r="J59" s="9" t="n">
+        <v>9.577080732120059</v>
+      </c>
+      <c r="K59" s="9" t="n">
+        <v>44.3749722365345</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="n"/>
-      <c r="C60" s="12" t="n"/>
-      <c r="D60" s="13" t="n"/>
-      <c r="E60" s="12" t="n"/>
-      <c r="F60" s="13" t="n"/>
-      <c r="G60" s="12" t="n"/>
-      <c r="H60" s="13" t="n"/>
-      <c r="I60" s="12" t="n"/>
-      <c r="J60" s="13" t="n"/>
-      <c r="K60" s="13" t="n"/>
+      <c r="A60" s="11" t="inlineStr">
+        <is>
+          <t>682</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>COPPER</t>
+        </is>
+      </c>
+      <c r="C60" s="8" t="n">
+        <v>19.325876</v>
+      </c>
+      <c r="D60" s="9" t="n">
+        <v>2.52030621371856</v>
+      </c>
+      <c r="E60" s="8" t="n">
+        <v>24.127396</v>
+      </c>
+      <c r="F60" s="9" t="n">
+        <v>8.87691152802293</v>
+      </c>
+      <c r="G60" s="8" t="n">
+        <v>42.314976</v>
+      </c>
+      <c r="H60" s="9" t="n">
+        <v>3.606401339673303</v>
+      </c>
+      <c r="I60" s="8" t="n">
+        <v>90.06710099999999</v>
+      </c>
+      <c r="J60" s="9" t="n">
+        <v>7.096259261868767</v>
+      </c>
+      <c r="K60" s="9" t="n">
+        <v>271.1363603491967</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="n"/>
-      <c r="C61" s="12" t="n"/>
-      <c r="D61" s="13" t="n"/>
-      <c r="E61" s="12" t="n"/>
-      <c r="F61" s="13" t="n"/>
-      <c r="G61" s="12" t="n"/>
-      <c r="H61" s="13" t="n"/>
-      <c r="I61" s="12" t="n"/>
-      <c r="J61" s="13" t="n"/>
-      <c r="K61" s="13" t="n"/>
+      <c r="A61" s="11" t="inlineStr">
+        <is>
+          <t>728</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>OTHER MACHINERY AND EQUIPMENT SPECIALIZED FOR PARTICULAR INDUSTRIES, AND PARTS THEREOF, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C61" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D61" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E61" s="8" t="n">
+        <v>0.608081</v>
+      </c>
+      <c r="F61" s="9" t="n">
+        <v>0.2237241531938097</v>
+      </c>
+      <c r="G61" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H61" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="I61" s="8" t="n">
+        <v>20.5278</v>
+      </c>
+      <c r="J61" s="9" t="n">
+        <v>1.617356273916151</v>
+      </c>
+      <c r="K61" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="n"/>
-      <c r="C62" s="12" t="n"/>
-      <c r="D62" s="13" t="n"/>
-      <c r="E62" s="12" t="n"/>
-      <c r="F62" s="13" t="n"/>
-      <c r="G62" s="12" t="n"/>
-      <c r="H62" s="13" t="n"/>
-      <c r="I62" s="12" t="n"/>
-      <c r="J62" s="13" t="n"/>
-      <c r="K62" s="13" t="n"/>
+      <c r="A62" s="11" t="inlineStr">
+        <is>
+          <t>553</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>PERFUMERY, COSMETICS OR TOILET PREPARATIONS (EXCLUDING SOAPS)</t>
+        </is>
+      </c>
+      <c r="C62" s="8" t="n">
+        <v>32.594151</v>
+      </c>
+      <c r="D62" s="9" t="n">
+        <v>4.250634811906121</v>
+      </c>
+      <c r="E62" s="8" t="n">
+        <v>62.730275</v>
+      </c>
+      <c r="F62" s="9" t="n">
+        <v>23.07961875801055</v>
+      </c>
+      <c r="G62" s="8" t="n">
+        <v>7.345678</v>
+      </c>
+      <c r="H62" s="9" t="n">
+        <v>0.6260540707859249</v>
+      </c>
+      <c r="I62" s="8" t="n">
+        <v>16.972678</v>
+      </c>
+      <c r="J62" s="9" t="n">
+        <v>1.337253249177147</v>
+      </c>
+      <c r="K62" s="9" t="n">
+        <v>336.8356776409139</v>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="11" t="n"/>
-      <c r="C63" s="12" t="n"/>
-      <c r="D63" s="13" t="n"/>
-      <c r="E63" s="12" t="n"/>
-      <c r="F63" s="13" t="n"/>
-      <c r="G63" s="12" t="n"/>
-      <c r="H63" s="13" t="n"/>
-      <c r="I63" s="12" t="n"/>
-      <c r="J63" s="13" t="n"/>
-      <c r="K63" s="13" t="n"/>
+      <c r="A63" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C63" s="8" t="n">
+        <v>10.237513</v>
+      </c>
+      <c r="D63" s="9" t="n">
+        <v>1.335083989306593</v>
+      </c>
+      <c r="E63" s="8" t="n">
+        <v>1.700531</v>
+      </c>
+      <c r="F63" s="9" t="n">
+        <v>0.6256565456819444</v>
+      </c>
+      <c r="G63" s="8" t="n">
+        <v>2.187744</v>
+      </c>
+      <c r="H63" s="9" t="n">
+        <v>0.1864560408225738</v>
+      </c>
+      <c r="I63" s="8" t="n">
+        <v>12.351979</v>
+      </c>
+      <c r="J63" s="9" t="n">
+        <v>0.9731949225406789</v>
+      </c>
+      <c r="K63" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="n"/>
-      <c r="C64" s="12" t="n"/>
-      <c r="D64" s="13" t="n"/>
-      <c r="E64" s="12" t="n"/>
-      <c r="F64" s="13" t="n"/>
-      <c r="G64" s="12" t="n"/>
-      <c r="H64" s="13" t="n"/>
-      <c r="I64" s="12" t="n"/>
-      <c r="J64" s="13" t="n"/>
-      <c r="K64" s="13" t="n"/>
+      <c r="A64" s="11" t="inlineStr">
+        <is>
+          <t>743</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>PUMPS (OTHER THAN PUMPS FOR LIQUIDS), AIR COMPRESSORS AND FANS; VENTILATING HOODS INCORPORATING A FAN; CENTRIFUGES; FILTERING APPARATUS; AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C64" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D64" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E64" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F64" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G64" s="8" t="n">
+        <v>11.718215</v>
+      </c>
+      <c r="H64" s="9" t="n">
+        <v>0.998714645958438</v>
+      </c>
+      <c r="I64" s="8" t="n">
+        <v>9.629492000000001</v>
+      </c>
+      <c r="J64" s="9" t="n">
+        <v>0.7586940296001221</v>
+      </c>
+      <c r="K64" s="9" t="n">
+        <v>56.55653696229827</v>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="11" t="n"/>
-      <c r="C65" s="12" t="n"/>
-      <c r="D65" s="13" t="n"/>
-      <c r="E65" s="12" t="n"/>
-      <c r="F65" s="13" t="n"/>
-      <c r="G65" s="12" t="n"/>
-      <c r="H65" s="13" t="n"/>
-      <c r="I65" s="12" t="n"/>
-      <c r="J65" s="13" t="n"/>
-      <c r="K65" s="13" t="n"/>
+      <c r="A65" s="11" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>PRINTED MATTER</t>
+        </is>
+      </c>
+      <c r="C65" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D65" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E65" s="8" t="n">
+        <v>4.26545</v>
+      </c>
+      <c r="F65" s="9" t="n">
+        <v>1.569337290986786</v>
+      </c>
+      <c r="G65" s="8" t="n">
+        <v>1.843392</v>
+      </c>
+      <c r="H65" s="9" t="n">
+        <v>0.1571077667240801</v>
+      </c>
+      <c r="I65" s="8" t="n">
+        <v>5.260205</v>
+      </c>
+      <c r="J65" s="9" t="n">
+        <v>0.4144440981905079</v>
+      </c>
+      <c r="K65" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="11" t="n"/>
-      <c r="C66" s="12" t="n"/>
-      <c r="D66" s="13" t="n"/>
-      <c r="E66" s="12" t="n"/>
-      <c r="F66" s="13" t="n"/>
-      <c r="G66" s="12" t="n"/>
-      <c r="H66" s="13" t="n"/>
-      <c r="I66" s="12" t="n"/>
-      <c r="J66" s="13" t="n"/>
-      <c r="K66" s="13" t="n"/>
+      <c r="A66" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C66" s="8" t="n">
+        <v>1.075068</v>
+      </c>
+      <c r="D66" s="9" t="n">
+        <v>0.1402006594976593</v>
+      </c>
+      <c r="E66" s="8" t="n">
+        <v>7.568066</v>
+      </c>
+      <c r="F66" s="9" t="n">
+        <v>2.784430293274847</v>
+      </c>
+      <c r="G66" s="8" t="n">
+        <v>8.106885</v>
+      </c>
+      <c r="H66" s="9" t="n">
+        <v>0.6909298713669932</v>
+      </c>
+      <c r="I66" s="8" t="n">
+        <v>4.898761</v>
+      </c>
+      <c r="J66" s="9" t="n">
+        <v>0.3859664376000233</v>
+      </c>
+      <c r="K66" s="9" t="n">
+        <v>240.4231765901957</v>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="11" t="n"/>
-      <c r="C67" s="12" t="n"/>
-      <c r="D67" s="13" t="n"/>
-      <c r="E67" s="12" t="n"/>
-      <c r="F67" s="13" t="n"/>
-      <c r="G67" s="12" t="n"/>
-      <c r="H67" s="13" t="n"/>
-      <c r="I67" s="12" t="n"/>
-      <c r="J67" s="13" t="n"/>
-      <c r="K67" s="13" t="n"/>
+      <c r="A67" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C67" s="8" t="n">
+        <v>130.409423</v>
+      </c>
+      <c r="D67" s="9" t="n">
+        <v>17.00681920521233</v>
+      </c>
+      <c r="E67" s="8" t="n">
+        <v>113.406451</v>
+      </c>
+      <c r="F67" s="9" t="n">
+        <v>41.72431340017247</v>
+      </c>
+      <c r="G67" s="8" t="n">
+        <v>115.379343</v>
+      </c>
+      <c r="H67" s="9" t="n">
+        <v>9.833497652600006</v>
+      </c>
+      <c r="I67" s="8" t="n">
+        <v>40.369966</v>
+      </c>
+      <c r="J67" s="9" t="n">
+        <v>3.180692416522068</v>
+      </c>
+      <c r="K67" s="9" t="n">
+        <v>-57.01759661895041</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="11" t="n"/>
